--- a/ReadDataForLoginInBestBuy.xlsx
+++ b/ReadDataForLoginInBestBuy.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\eclipse-workspace\com.BestBuyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CEA059-F536-45FA-8202-8E25EE9BC4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45273192-E888-4C82-9BE1-5E323DB68924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CE18DFEB-9746-4D3E-9BA3-D9ADB146F0AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{CE18DFEB-9746-4D3E-9BA3-D9ADB146F0AF}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
     <sheet name="LoginInvalid" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>KomalDhumale9333@gmail.com</t>
   </si>
@@ -53,6 +54,21 @@
   </si>
   <si>
     <t>Kiku@0513238990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items </t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>k1235</t>
+  </si>
+  <si>
+    <t>u78%</t>
+  </si>
+  <si>
+    <t>hji0&amp;</t>
   </si>
 </sst>
 </file>
@@ -456,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DBCA83-8412-4E44-A0CB-393CA6C5555B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -518,4 +534,44 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E961EF53-454C-4CAF-90F3-952303627FED}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>